--- a/assessment stat ans.xlsx
+++ b/assessment stat ans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1(Z test)" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
